--- a/biology/Zoologie/Busard_pâle/Busard_pâle.xlsx
+++ b/biology/Zoologie/Busard_pâle/Busard_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Busard_p%C3%A2le</t>
+          <t>Busard_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circus macrourus
 Le Busard pâle (Circus macrourus) est une espèce de rapaces diurnes de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Busard_p%C3%A2le</t>
+          <t>Busard_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Busard pâle bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[1]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Busard pâle bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Busard_p%C3%A2le</t>
+          <t>Busard_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
